--- a/para/Swi/A2F06M12W2.xlsx
+++ b/para/Swi/A2F06M12W2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1770" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E64B8F7-099C-4EDD-8ADC-BB1FBA78089A}"/>
+  <xr:revisionPtr revIDLastSave="1784" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5E7830F-57F1-4CA3-829C-290775D40278}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-2550" windowWidth="18240" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -3007,70 +3007,70 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.9998400085333157E-4</c:v>
+                  <c:v>4.9991667592513833E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9993600682616814E-4</c:v>
+                  <c:v>9.9966674072837769E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.996001066453486E-4</c:v>
+                  <c:v>2.497917823591933E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9984008529920494E-3</c:v>
+                  <c:v>4.9916759182150883E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9936068212088893E-3</c:v>
+                  <c:v>9.9667406174483442E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9601064536741779E-3</c:v>
+                  <c:v>2.4792819267573762E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9840849930893578E-2</c:v>
+                  <c:v>4.9175849276991146E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9366772401003003E-2</c:v>
+                  <c:v>9.6739522452573334E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6104567016705306E-2</c:v>
+                  <c:v>0.23027741266407881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18482026379223582</c:v>
+                  <c:v>0.42520303413931609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34231370365788633</c:v>
+                  <c:v>0.72987432145111197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68833879485347305</c:v>
+                  <c:v>1.2166865957436572</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99762935250668083</c:v>
+                  <c:v>1.4464890099791214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1990472450270424</c:v>
+                  <c:v>1.4980910492979902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2495806717151219</c:v>
+                  <c:v>1.499999913333772</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2499998593310315</c:v>
+                  <c:v>1.4999999999999951</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2499999999999842</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.25</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.25</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.25</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.25</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.25</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13249,46 +13249,46 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.9923116355638561E-4</c:v>
+                  <c:v>9.2687452545713131E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9969262303155323E-3</c:v>
+                  <c:v>0.17215803761540502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9808184457533827E-3</c:v>
+                  <c:v>0.34880990999973605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9234698878304713E-3</c:v>
+                  <c:v>0.51043773797789682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9695439383945978E-2</c:v>
+                  <c:v>0.62003442310657508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8125298882494581E-2</c:v>
+                  <c:v>0.64970338946462236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.26874525457132E-2</c:v>
+                  <c:v>0.64999986464952353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17215803761540507</c:v>
+                  <c:v>0.64999999999997182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34880990999973605</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51043773797789682</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62003442310657508</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64970338946462236</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64999986464952353</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64999999999997182</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.65</c:v>
@@ -13432,70 +13432,70 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.9923116355638561E-4</c:v>
+                  <c:v>9.2110965065631517E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9969262303155323E-3</c:v>
+                  <c:v>0.17008121365572643</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9808184457533827E-3</c:v>
+                  <c:v>0.33924107489575306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9234698878304713E-3</c:v>
+                  <c:v>0.48667463829746294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9695439383945978E-2</c:v>
+                  <c:v>0.57859560399164855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8125298882494581E-2</c:v>
+                  <c:v>0.59985577831414827</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.26874525457132E-2</c:v>
+                  <c:v>0.59999996533350886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17215803761540507</c:v>
+                  <c:v>0.59999999999999798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34880990999973605</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51043773797789682</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62003442310657508</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64970338946462236</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64999986464952353</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64999999999997182</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23570,7 +23570,7 @@
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23675,10 +23675,10 @@
         <v>52</v>
       </c>
       <c r="E3" s="65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="55">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -23707,10 +23707,10 @@
         <v>53</v>
       </c>
       <c r="E4" s="65">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F4" s="55">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
@@ -23739,10 +23739,10 @@
         <v>56</v>
       </c>
       <c r="E5" s="65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="55">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -23771,10 +23771,10 @@
         <v>49</v>
       </c>
       <c r="E6" s="65">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="55">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="41"/>
@@ -23803,10 +23803,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -24174,11 +24174,11 @@
       </c>
       <c r="E100" s="7">
         <f>IFERROR(E$2*(1-EXP(-$D100/(E$2*E$3))),"")</f>
-        <v>9.9923116355638561E-4</v>
+        <v>9.2687452545713131E-2</v>
       </c>
       <c r="F100" s="7">
         <f t="shared" ref="F100:O100" si="0">IFERROR(F$2*(1-EXP(-$D100/(F$2*F$3))),"")</f>
-        <v>9.9923116355638561E-4</v>
+        <v>9.2687452545713131E-2</v>
       </c>
       <c r="G100" s="7" t="str">
         <f t="shared" si="0"/>
@@ -24218,7 +24218,7 @@
       </c>
       <c r="P100" s="7">
         <f>SUM(F100:O100)</f>
-        <v>9.9923116355638561E-4</v>
+        <v>9.2687452545713131E-2</v>
       </c>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.3">
@@ -24227,11 +24227,11 @@
       </c>
       <c r="E101" s="7">
         <f t="shared" ref="E101:O121" si="1">IFERROR(E$2*(1-EXP(-$D101/(E$2*E$3))),"")</f>
-        <v>1.9969262303155323E-3</v>
+        <v>0.17215803761540502</v>
       </c>
       <c r="F101" s="7">
         <f t="shared" si="1"/>
-        <v>1.9969262303155323E-3</v>
+        <v>0.17215803761540502</v>
       </c>
       <c r="G101" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24271,7 +24271,7 @@
       </c>
       <c r="P101" s="7">
         <f t="shared" ref="P101:P121" si="2">SUM(F101:O101)</f>
-        <v>1.9969262303155323E-3</v>
+        <v>0.17215803761540502</v>
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.3">
@@ -24280,11 +24280,11 @@
       </c>
       <c r="E102" s="7">
         <f t="shared" si="1"/>
-        <v>4.9808184457533827E-3</v>
+        <v>0.34880990999973605</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="1"/>
-        <v>4.9808184457533827E-3</v>
+        <v>0.34880990999973605</v>
       </c>
       <c r="G102" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="P102" s="7">
         <f t="shared" si="2"/>
-        <v>4.9808184457533827E-3</v>
+        <v>0.34880990999973605</v>
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.3">
@@ -24333,11 +24333,11 @@
       </c>
       <c r="E103" s="7">
         <f t="shared" si="1"/>
-        <v>9.9234698878304713E-3</v>
+        <v>0.51043773797789682</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="1"/>
-        <v>9.9234698878304713E-3</v>
+        <v>0.51043773797789682</v>
       </c>
       <c r="G103" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24377,7 +24377,7 @@
       </c>
       <c r="P103" s="7">
         <f t="shared" si="2"/>
-        <v>9.9234698878304713E-3</v>
+        <v>0.51043773797789682</v>
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.3">
@@ -24386,11 +24386,11 @@
       </c>
       <c r="E104" s="7">
         <f t="shared" si="1"/>
-        <v>1.9695439383945978E-2</v>
+        <v>0.62003442310657508</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="1"/>
-        <v>1.9695439383945978E-2</v>
+        <v>0.62003442310657508</v>
       </c>
       <c r="G104" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24430,7 +24430,7 @@
       </c>
       <c r="P104" s="7">
         <f t="shared" si="2"/>
-        <v>1.9695439383945978E-2</v>
+        <v>0.62003442310657508</v>
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.3">
@@ -24439,11 +24439,11 @@
       </c>
       <c r="E105" s="7">
         <f t="shared" si="1"/>
-        <v>4.8125298882494581E-2</v>
+        <v>0.64970338946462236</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="1"/>
-        <v>4.8125298882494581E-2</v>
+        <v>0.64970338946462236</v>
       </c>
       <c r="G105" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24483,7 +24483,7 @@
       </c>
       <c r="P105" s="7">
         <f t="shared" si="2"/>
-        <v>4.8125298882494581E-2</v>
+        <v>0.64970338946462236</v>
       </c>
     </row>
     <row r="106" spans="4:16" x14ac:dyDescent="0.3">
@@ -24492,11 +24492,11 @@
       </c>
       <c r="E106" s="7">
         <f t="shared" si="1"/>
-        <v>9.26874525457132E-2</v>
+        <v>0.64999986464952353</v>
       </c>
       <c r="F106" s="7">
         <f t="shared" si="1"/>
-        <v>9.26874525457132E-2</v>
+        <v>0.64999986464952353</v>
       </c>
       <c r="G106" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24536,7 +24536,7 @@
       </c>
       <c r="P106" s="7">
         <f t="shared" si="2"/>
-        <v>9.26874525457132E-2</v>
+        <v>0.64999986464952353</v>
       </c>
     </row>
     <row r="107" spans="4:16" x14ac:dyDescent="0.3">
@@ -24545,11 +24545,11 @@
       </c>
       <c r="E107" s="7">
         <f t="shared" si="1"/>
-        <v>0.17215803761540507</v>
+        <v>0.64999999999997182</v>
       </c>
       <c r="F107" s="7">
         <f t="shared" si="1"/>
-        <v>0.17215803761540507</v>
+        <v>0.64999999999997182</v>
       </c>
       <c r="G107" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24589,7 +24589,7 @@
       </c>
       <c r="P107" s="7">
         <f t="shared" si="2"/>
-        <v>0.17215803761540507</v>
+        <v>0.64999999999997182</v>
       </c>
     </row>
     <row r="108" spans="4:16" x14ac:dyDescent="0.3">
@@ -24598,11 +24598,11 @@
       </c>
       <c r="E108" s="7">
         <f t="shared" si="1"/>
-        <v>0.34880990999973605</v>
+        <v>0.65</v>
       </c>
       <c r="F108" s="7">
         <f t="shared" si="1"/>
-        <v>0.34880990999973605</v>
+        <v>0.65</v>
       </c>
       <c r="G108" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24642,7 +24642,7 @@
       </c>
       <c r="P108" s="7">
         <f t="shared" si="2"/>
-        <v>0.34880990999973605</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="109" spans="4:16" x14ac:dyDescent="0.3">
@@ -24651,11 +24651,11 @@
       </c>
       <c r="E109" s="7">
         <f t="shared" si="1"/>
-        <v>0.51043773797789682</v>
+        <v>0.65</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="1"/>
-        <v>0.51043773797789682</v>
+        <v>0.65</v>
       </c>
       <c r="G109" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24695,7 +24695,7 @@
       </c>
       <c r="P109" s="7">
         <f t="shared" si="2"/>
-        <v>0.51043773797789682</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="110" spans="4:16" x14ac:dyDescent="0.3">
@@ -24704,11 +24704,11 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" si="1"/>
-        <v>0.62003442310657508</v>
+        <v>0.65</v>
       </c>
       <c r="F110" s="7">
         <f t="shared" si="1"/>
-        <v>0.62003442310657508</v>
+        <v>0.65</v>
       </c>
       <c r="G110" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24748,7 +24748,7 @@
       </c>
       <c r="P110" s="7">
         <f t="shared" si="2"/>
-        <v>0.62003442310657508</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="111" spans="4:16" x14ac:dyDescent="0.3">
@@ -24757,11 +24757,11 @@
       </c>
       <c r="E111" s="7">
         <f t="shared" si="1"/>
-        <v>0.64970338946462236</v>
+        <v>0.65</v>
       </c>
       <c r="F111" s="7">
         <f t="shared" si="1"/>
-        <v>0.64970338946462236</v>
+        <v>0.65</v>
       </c>
       <c r="G111" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24801,7 +24801,7 @@
       </c>
       <c r="P111" s="7">
         <f t="shared" si="2"/>
-        <v>0.64970338946462236</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="112" spans="4:16" x14ac:dyDescent="0.3">
@@ -24810,11 +24810,11 @@
       </c>
       <c r="E112" s="7">
         <f t="shared" si="1"/>
-        <v>0.64999986464952353</v>
+        <v>0.65</v>
       </c>
       <c r="F112" s="7">
         <f t="shared" si="1"/>
-        <v>0.64999986464952353</v>
+        <v>0.65</v>
       </c>
       <c r="G112" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24854,7 +24854,7 @@
       </c>
       <c r="P112" s="7">
         <f t="shared" si="2"/>
-        <v>0.64999986464952353</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="113" spans="4:16" x14ac:dyDescent="0.3">
@@ -24863,11 +24863,11 @@
       </c>
       <c r="E113" s="7">
         <f t="shared" si="1"/>
-        <v>0.64999999999997182</v>
+        <v>0.65</v>
       </c>
       <c r="F113" s="7">
         <f t="shared" si="1"/>
-        <v>0.64999999999997182</v>
+        <v>0.65</v>
       </c>
       <c r="G113" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24907,7 +24907,7 @@
       </c>
       <c r="P113" s="7">
         <f t="shared" si="2"/>
-        <v>0.64999999999997182</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="114" spans="4:16" x14ac:dyDescent="0.3">
@@ -25381,11 +25381,11 @@
       </c>
       <c r="E127" s="7">
         <f>IFERROR(E$4*(1-EXP(-$D127/(E$4*E$5))),"")</f>
-        <v>9.9923116355638561E-4</v>
+        <v>9.2110965065631517E-2</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" ref="F127:O142" si="3">IFERROR(F$4*(1-EXP(-$D127/(F$4*F$5))),"")</f>
-        <v>9.9923116355638561E-4</v>
+        <v>9.2110965065631517E-2</v>
       </c>
       <c r="G127" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25425,7 +25425,7 @@
       </c>
       <c r="P127" s="7">
         <f>SUM(F127:O127)</f>
-        <v>9.9923116355638561E-4</v>
+        <v>9.2110965065631517E-2</v>
       </c>
     </row>
     <row r="128" spans="4:16" x14ac:dyDescent="0.3">
@@ -25434,11 +25434,11 @@
       </c>
       <c r="E128" s="7">
         <f t="shared" ref="E128:O148" si="4">IFERROR(E$4*(1-EXP(-$D128/(E$4*E$5))),"")</f>
-        <v>1.9969262303155323E-3</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>1.9969262303155323E-3</v>
+        <v>0.17008121365572643</v>
       </c>
       <c r="G128" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25478,7 +25478,7 @@
       </c>
       <c r="P128" s="7">
         <f t="shared" ref="P128:P147" si="5">SUM(F128:O128)</f>
-        <v>1.9969262303155323E-3</v>
+        <v>0.17008121365572643</v>
       </c>
     </row>
     <row r="129" spans="4:16" x14ac:dyDescent="0.3">
@@ -25487,11 +25487,11 @@
       </c>
       <c r="E129" s="7">
         <f t="shared" si="4"/>
-        <v>4.9808184457533827E-3</v>
+        <v>0.33924107489575306</v>
       </c>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>4.9808184457533827E-3</v>
+        <v>0.33924107489575306</v>
       </c>
       <c r="G129" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="P129" s="7">
         <f t="shared" si="5"/>
-        <v>4.9808184457533827E-3</v>
+        <v>0.33924107489575306</v>
       </c>
     </row>
     <row r="130" spans="4:16" x14ac:dyDescent="0.3">
@@ -25540,11 +25540,11 @@
       </c>
       <c r="E130" s="7">
         <f t="shared" si="4"/>
-        <v>9.9234698878304713E-3</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>9.9234698878304713E-3</v>
+        <v>0.48667463829746294</v>
       </c>
       <c r="G130" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25584,7 +25584,7 @@
       </c>
       <c r="P130" s="7">
         <f t="shared" si="5"/>
-        <v>9.9234698878304713E-3</v>
+        <v>0.48667463829746294</v>
       </c>
     </row>
     <row r="131" spans="4:16" x14ac:dyDescent="0.3">
@@ -25593,11 +25593,11 @@
       </c>
       <c r="E131" s="7">
         <f t="shared" si="4"/>
-        <v>1.9695439383945978E-2</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>1.9695439383945978E-2</v>
+        <v>0.57859560399164855</v>
       </c>
       <c r="G131" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25637,7 +25637,7 @@
       </c>
       <c r="P131" s="7">
         <f t="shared" si="5"/>
-        <v>1.9695439383945978E-2</v>
+        <v>0.57859560399164855</v>
       </c>
     </row>
     <row r="132" spans="4:16" x14ac:dyDescent="0.3">
@@ -25646,11 +25646,11 @@
       </c>
       <c r="E132" s="7">
         <f t="shared" si="4"/>
-        <v>4.8125298882494581E-2</v>
+        <v>0.59985577831414827</v>
       </c>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>4.8125298882494581E-2</v>
+        <v>0.59985577831414827</v>
       </c>
       <c r="G132" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25690,7 +25690,7 @@
       </c>
       <c r="P132" s="7">
         <f t="shared" si="5"/>
-        <v>4.8125298882494581E-2</v>
+        <v>0.59985577831414827</v>
       </c>
     </row>
     <row r="133" spans="4:16" x14ac:dyDescent="0.3">
@@ -25699,11 +25699,11 @@
       </c>
       <c r="E133" s="7">
         <f t="shared" si="4"/>
-        <v>9.26874525457132E-2</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>9.26874525457132E-2</v>
+        <v>0.59999996533350886</v>
       </c>
       <c r="G133" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25743,7 +25743,7 @@
       </c>
       <c r="P133" s="7">
         <f t="shared" si="5"/>
-        <v>9.26874525457132E-2</v>
+        <v>0.59999996533350886</v>
       </c>
     </row>
     <row r="134" spans="4:16" x14ac:dyDescent="0.3">
@@ -25752,11 +25752,11 @@
       </c>
       <c r="E134" s="7">
         <f t="shared" si="4"/>
-        <v>0.17215803761540507</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>0.17215803761540507</v>
+        <v>0.59999999999999798</v>
       </c>
       <c r="G134" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25796,7 +25796,7 @@
       </c>
       <c r="P134" s="7">
         <f t="shared" si="5"/>
-        <v>0.17215803761540507</v>
+        <v>0.59999999999999798</v>
       </c>
     </row>
     <row r="135" spans="4:16" x14ac:dyDescent="0.3">
@@ -25805,11 +25805,11 @@
       </c>
       <c r="E135" s="7">
         <f t="shared" si="4"/>
-        <v>0.34880990999973605</v>
+        <v>0.6</v>
       </c>
       <c r="F135" s="7">
         <f t="shared" si="3"/>
-        <v>0.34880990999973605</v>
+        <v>0.6</v>
       </c>
       <c r="G135" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25849,7 +25849,7 @@
       </c>
       <c r="P135" s="7">
         <f t="shared" si="5"/>
-        <v>0.34880990999973605</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="136" spans="4:16" x14ac:dyDescent="0.3">
@@ -25858,11 +25858,11 @@
       </c>
       <c r="E136" s="7">
         <f t="shared" si="4"/>
-        <v>0.51043773797789682</v>
+        <v>0.6</v>
       </c>
       <c r="F136" s="7">
         <f t="shared" si="3"/>
-        <v>0.51043773797789682</v>
+        <v>0.6</v>
       </c>
       <c r="G136" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25902,7 +25902,7 @@
       </c>
       <c r="P136" s="7">
         <f t="shared" si="5"/>
-        <v>0.51043773797789682</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="137" spans="4:16" x14ac:dyDescent="0.3">
@@ -25911,11 +25911,11 @@
       </c>
       <c r="E137" s="7">
         <f t="shared" si="4"/>
-        <v>0.62003442310657508</v>
+        <v>0.6</v>
       </c>
       <c r="F137" s="7">
         <f t="shared" si="3"/>
-        <v>0.62003442310657508</v>
+        <v>0.6</v>
       </c>
       <c r="G137" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="P137" s="7">
         <f t="shared" si="5"/>
-        <v>0.62003442310657508</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="138" spans="4:16" x14ac:dyDescent="0.3">
@@ -25964,11 +25964,11 @@
       </c>
       <c r="E138" s="7">
         <f t="shared" si="4"/>
-        <v>0.64970338946462236</v>
+        <v>0.6</v>
       </c>
       <c r="F138" s="7">
         <f t="shared" si="3"/>
-        <v>0.64970338946462236</v>
+        <v>0.6</v>
       </c>
       <c r="G138" s="7" t="str">
         <f t="shared" si="3"/>
@@ -26008,7 +26008,7 @@
       </c>
       <c r="P138" s="7">
         <f t="shared" si="5"/>
-        <v>0.64970338946462236</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="139" spans="4:16" x14ac:dyDescent="0.3">
@@ -26017,11 +26017,11 @@
       </c>
       <c r="E139" s="7">
         <f t="shared" si="4"/>
-        <v>0.64999986464952353</v>
+        <v>0.6</v>
       </c>
       <c r="F139" s="7">
         <f t="shared" si="3"/>
-        <v>0.64999986464952353</v>
+        <v>0.6</v>
       </c>
       <c r="G139" s="7" t="str">
         <f t="shared" si="3"/>
@@ -26061,7 +26061,7 @@
       </c>
       <c r="P139" s="7">
         <f t="shared" si="5"/>
-        <v>0.64999986464952353</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="140" spans="4:16" x14ac:dyDescent="0.3">
@@ -26070,11 +26070,11 @@
       </c>
       <c r="E140" s="7">
         <f t="shared" si="4"/>
-        <v>0.64999999999997182</v>
+        <v>0.6</v>
       </c>
       <c r="F140" s="7">
         <f t="shared" si="3"/>
-        <v>0.64999999999997182</v>
+        <v>0.6</v>
       </c>
       <c r="G140" s="7" t="str">
         <f t="shared" si="3"/>
@@ -26114,7 +26114,7 @@
       </c>
       <c r="P140" s="7">
         <f t="shared" si="5"/>
-        <v>0.64999999999997182</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="141" spans="4:16" x14ac:dyDescent="0.3">
@@ -26123,11 +26123,11 @@
       </c>
       <c r="E141" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F141" s="7">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G141" s="7" t="str">
         <f t="shared" si="3"/>
@@ -26167,7 +26167,7 @@
       </c>
       <c r="P141" s="7">
         <f t="shared" si="5"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="142" spans="4:16" x14ac:dyDescent="0.3">
@@ -26176,11 +26176,11 @@
       </c>
       <c r="E142" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F142" s="7">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G142" s="7" t="str">
         <f t="shared" si="3"/>
@@ -26220,7 +26220,7 @@
       </c>
       <c r="P142" s="7">
         <f t="shared" si="5"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="143" spans="4:16" x14ac:dyDescent="0.3">
@@ -26229,11 +26229,11 @@
       </c>
       <c r="E143" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F143" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G143" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26273,7 +26273,7 @@
       </c>
       <c r="P143" s="7">
         <f t="shared" si="5"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="144" spans="4:16" x14ac:dyDescent="0.3">
@@ -26282,11 +26282,11 @@
       </c>
       <c r="E144" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F144" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G144" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="P144" s="7">
         <f t="shared" si="5"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="145" spans="4:16" x14ac:dyDescent="0.3">
@@ -26335,11 +26335,11 @@
       </c>
       <c r="E145" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F145" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G145" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26379,7 +26379,7 @@
       </c>
       <c r="P145" s="7">
         <f t="shared" si="5"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="146" spans="4:16" x14ac:dyDescent="0.3">
@@ -26388,11 +26388,11 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F146" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G146" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26432,7 +26432,7 @@
       </c>
       <c r="P146" s="7">
         <f t="shared" si="5"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="147" spans="4:16" x14ac:dyDescent="0.3">
@@ -26441,11 +26441,11 @@
       </c>
       <c r="E147" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F147" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G147" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="P147" s="7">
         <f t="shared" si="5"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="148" spans="4:16" x14ac:dyDescent="0.3">
@@ -26494,11 +26494,11 @@
       </c>
       <c r="E148" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F148" s="7">
         <f t="shared" si="4"/>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="G148" s="7" t="str">
         <f t="shared" si="4"/>
@@ -26538,7 +26538,7 @@
       </c>
       <c r="P148" s="7">
         <f>SUM(F148:O148)</f>
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="153" spans="4:16" x14ac:dyDescent="0.3">
@@ -26588,11 +26588,11 @@
       </c>
       <c r="E154" s="7">
         <f>IFERROR(E$6*(1-EXP(-$D154/(E$6*E$7))),"")</f>
-        <v>1.9998400085333157E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
       <c r="F154" s="7">
         <f t="shared" ref="F154:O169" si="6">IFERROR(F$6*(1-EXP(-$D154/(F$6*F$7))),"")</f>
-        <v>1.9998400085333157E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
       <c r="G154" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26632,7 +26632,7 @@
       </c>
       <c r="P154" s="7">
         <f>SUM(F154:O154)</f>
-        <v>1.9998400085333157E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.3">
@@ -26641,11 +26641,11 @@
       </c>
       <c r="E155" s="7">
         <f t="shared" ref="E155:O175" si="7">IFERROR(E$6*(1-EXP(-$D155/(E$6*E$7))),"")</f>
-        <v>3.9993600682616814E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
       <c r="F155" s="7">
         <f t="shared" si="6"/>
-        <v>3.9993600682616814E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
       <c r="G155" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26685,7 +26685,7 @@
       </c>
       <c r="P155" s="7">
         <f t="shared" ref="P155:P174" si="8">SUM(F155:O155)</f>
-        <v>3.9993600682616814E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
     </row>
     <row r="156" spans="4:16" x14ac:dyDescent="0.3">
@@ -26694,11 +26694,11 @@
       </c>
       <c r="E156" s="7">
         <f t="shared" si="7"/>
-        <v>9.996001066453486E-4</v>
+        <v>2.497917823591933E-3</v>
       </c>
       <c r="F156" s="7">
         <f t="shared" si="6"/>
-        <v>9.996001066453486E-4</v>
+        <v>2.497917823591933E-3</v>
       </c>
       <c r="G156" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26738,7 +26738,7 @@
       </c>
       <c r="P156" s="7">
         <f t="shared" si="8"/>
-        <v>9.996001066453486E-4</v>
+        <v>2.497917823591933E-3</v>
       </c>
     </row>
     <row r="157" spans="4:16" x14ac:dyDescent="0.3">
@@ -26747,11 +26747,11 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" si="7"/>
-        <v>1.9984008529920494E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
       <c r="F157" s="7">
         <f t="shared" si="6"/>
-        <v>1.9984008529920494E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
       <c r="G157" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26791,7 +26791,7 @@
       </c>
       <c r="P157" s="7">
         <f t="shared" si="8"/>
-        <v>1.9984008529920494E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
     </row>
     <row r="158" spans="4:16" x14ac:dyDescent="0.3">
@@ -26800,11 +26800,11 @@
       </c>
       <c r="E158" s="7">
         <f t="shared" si="7"/>
-        <v>3.9936068212088893E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
       <c r="F158" s="7">
         <f t="shared" si="6"/>
-        <v>3.9936068212088893E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
       <c r="G158" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="P158" s="7">
         <f t="shared" si="8"/>
-        <v>3.9936068212088893E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
     </row>
     <row r="159" spans="4:16" x14ac:dyDescent="0.3">
@@ -26853,11 +26853,11 @@
       </c>
       <c r="E159" s="7">
         <f t="shared" si="7"/>
-        <v>9.9601064536741779E-3</v>
+        <v>2.4792819267573762E-2</v>
       </c>
       <c r="F159" s="7">
         <f t="shared" si="6"/>
-        <v>9.9601064536741779E-3</v>
+        <v>2.4792819267573762E-2</v>
       </c>
       <c r="G159" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26897,7 +26897,7 @@
       </c>
       <c r="P159" s="7">
         <f t="shared" si="8"/>
-        <v>9.9601064536741779E-3</v>
+        <v>2.4792819267573762E-2</v>
       </c>
     </row>
     <row r="160" spans="4:16" x14ac:dyDescent="0.3">
@@ -26906,11 +26906,11 @@
       </c>
       <c r="E160" s="7">
         <f t="shared" si="7"/>
-        <v>1.9840849930893578E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
       <c r="F160" s="7">
         <f t="shared" si="6"/>
-        <v>1.9840849930893578E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
       <c r="G160" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26950,7 +26950,7 @@
       </c>
       <c r="P160" s="7">
         <f t="shared" si="8"/>
-        <v>1.9840849930893578E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
     </row>
     <row r="161" spans="4:16" x14ac:dyDescent="0.3">
@@ -26959,11 +26959,11 @@
       </c>
       <c r="E161" s="7">
         <f t="shared" si="7"/>
-        <v>3.9366772401003003E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
       <c r="F161" s="7">
         <f t="shared" si="6"/>
-        <v>3.9366772401003003E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
       <c r="G161" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27003,7 +27003,7 @@
       </c>
       <c r="P161" s="7">
         <f t="shared" si="8"/>
-        <v>3.9366772401003003E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
     </row>
     <row r="162" spans="4:16" x14ac:dyDescent="0.3">
@@ -27012,11 +27012,11 @@
       </c>
       <c r="E162" s="7">
         <f t="shared" si="7"/>
-        <v>9.6104567016705306E-2</v>
+        <v>0.23027741266407881</v>
       </c>
       <c r="F162" s="7">
         <f t="shared" si="6"/>
-        <v>9.6104567016705306E-2</v>
+        <v>0.23027741266407881</v>
       </c>
       <c r="G162" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27056,7 +27056,7 @@
       </c>
       <c r="P162" s="7">
         <f t="shared" si="8"/>
-        <v>9.6104567016705306E-2</v>
+        <v>0.23027741266407881</v>
       </c>
     </row>
     <row r="163" spans="4:16" x14ac:dyDescent="0.3">
@@ -27065,11 +27065,11 @@
       </c>
       <c r="E163" s="7">
         <f t="shared" si="7"/>
-        <v>0.18482026379223582</v>
+        <v>0.42520303413931609</v>
       </c>
       <c r="F163" s="7">
         <f t="shared" si="6"/>
-        <v>0.18482026379223582</v>
+        <v>0.42520303413931609</v>
       </c>
       <c r="G163" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27109,7 +27109,7 @@
       </c>
       <c r="P163" s="7">
         <f t="shared" si="8"/>
-        <v>0.18482026379223582</v>
+        <v>0.42520303413931609</v>
       </c>
     </row>
     <row r="164" spans="4:16" x14ac:dyDescent="0.3">
@@ -27118,11 +27118,11 @@
       </c>
       <c r="E164" s="7">
         <f t="shared" si="7"/>
-        <v>0.34231370365788633</v>
+        <v>0.72987432145111197</v>
       </c>
       <c r="F164" s="7">
         <f t="shared" si="6"/>
-        <v>0.34231370365788633</v>
+        <v>0.72987432145111197</v>
       </c>
       <c r="G164" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27162,7 +27162,7 @@
       </c>
       <c r="P164" s="7">
         <f t="shared" si="8"/>
-        <v>0.34231370365788633</v>
+        <v>0.72987432145111197</v>
       </c>
     </row>
     <row r="165" spans="4:16" x14ac:dyDescent="0.3">
@@ -27171,11 +27171,11 @@
       </c>
       <c r="E165" s="7">
         <f t="shared" si="7"/>
-        <v>0.68833879485347305</v>
+        <v>1.2166865957436572</v>
       </c>
       <c r="F165" s="7">
         <f t="shared" si="6"/>
-        <v>0.68833879485347305</v>
+        <v>1.2166865957436572</v>
       </c>
       <c r="G165" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27215,7 +27215,7 @@
       </c>
       <c r="P165" s="7">
         <f t="shared" si="8"/>
-        <v>0.68833879485347305</v>
+        <v>1.2166865957436572</v>
       </c>
     </row>
     <row r="166" spans="4:16" x14ac:dyDescent="0.3">
@@ -27224,11 +27224,11 @@
       </c>
       <c r="E166" s="7">
         <f t="shared" si="7"/>
-        <v>0.99762935250668083</v>
+        <v>1.4464890099791214</v>
       </c>
       <c r="F166" s="7">
         <f t="shared" si="6"/>
-        <v>0.99762935250668083</v>
+        <v>1.4464890099791214</v>
       </c>
       <c r="G166" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27268,7 +27268,7 @@
       </c>
       <c r="P166" s="7">
         <f t="shared" si="8"/>
-        <v>0.99762935250668083</v>
+        <v>1.4464890099791214</v>
       </c>
     </row>
     <row r="167" spans="4:16" x14ac:dyDescent="0.3">
@@ -27277,11 +27277,11 @@
       </c>
       <c r="E167" s="7">
         <f t="shared" si="7"/>
-        <v>1.1990472450270424</v>
+        <v>1.4980910492979902</v>
       </c>
       <c r="F167" s="7">
         <f t="shared" si="6"/>
-        <v>1.1990472450270424</v>
+        <v>1.4980910492979902</v>
       </c>
       <c r="G167" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="P167" s="7">
         <f t="shared" si="8"/>
-        <v>1.1990472450270424</v>
+        <v>1.4980910492979902</v>
       </c>
     </row>
     <row r="168" spans="4:16" x14ac:dyDescent="0.3">
@@ -27330,11 +27330,11 @@
       </c>
       <c r="E168" s="7">
         <f t="shared" si="7"/>
-        <v>1.2495806717151219</v>
+        <v>1.499999913333772</v>
       </c>
       <c r="F168" s="7">
         <f t="shared" si="6"/>
-        <v>1.2495806717151219</v>
+        <v>1.499999913333772</v>
       </c>
       <c r="G168" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27374,7 +27374,7 @@
       </c>
       <c r="P168" s="7">
         <f t="shared" si="8"/>
-        <v>1.2495806717151219</v>
+        <v>1.499999913333772</v>
       </c>
     </row>
     <row r="169" spans="4:16" x14ac:dyDescent="0.3">
@@ -27383,11 +27383,11 @@
       </c>
       <c r="E169" s="7">
         <f t="shared" si="7"/>
-        <v>1.2499998593310315</v>
+        <v>1.4999999999999951</v>
       </c>
       <c r="F169" s="7">
         <f t="shared" si="6"/>
-        <v>1.2499998593310315</v>
+        <v>1.4999999999999951</v>
       </c>
       <c r="G169" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27427,7 +27427,7 @@
       </c>
       <c r="P169" s="7">
         <f t="shared" si="8"/>
-        <v>1.2499998593310315</v>
+        <v>1.4999999999999951</v>
       </c>
     </row>
     <row r="170" spans="4:16" x14ac:dyDescent="0.3">
@@ -27436,11 +27436,11 @@
       </c>
       <c r="E170" s="7">
         <f t="shared" si="7"/>
-        <v>1.2499999999999842</v>
+        <v>1.5</v>
       </c>
       <c r="F170" s="7">
         <f t="shared" si="7"/>
-        <v>1.2499999999999842</v>
+        <v>1.5</v>
       </c>
       <c r="G170" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27480,7 +27480,7 @@
       </c>
       <c r="P170" s="7">
         <f t="shared" si="8"/>
-        <v>1.2499999999999842</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="171" spans="4:16" x14ac:dyDescent="0.3">
@@ -27489,11 +27489,11 @@
       </c>
       <c r="E171" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F171" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G171" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27533,7 +27533,7 @@
       </c>
       <c r="P171" s="7">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="172" spans="4:16" x14ac:dyDescent="0.3">
@@ -27542,11 +27542,11 @@
       </c>
       <c r="E172" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F172" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G172" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27586,7 +27586,7 @@
       </c>
       <c r="P172" s="7">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="173" spans="4:16" x14ac:dyDescent="0.3">
@@ -27595,11 +27595,11 @@
       </c>
       <c r="E173" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F173" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G173" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27639,7 +27639,7 @@
       </c>
       <c r="P173" s="7">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="174" spans="4:16" x14ac:dyDescent="0.3">
@@ -27648,11 +27648,11 @@
       </c>
       <c r="E174" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F174" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G174" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27692,7 +27692,7 @@
       </c>
       <c r="P174" s="7">
         <f t="shared" si="8"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="175" spans="4:16" x14ac:dyDescent="0.3">
@@ -27701,11 +27701,11 @@
       </c>
       <c r="E175" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F175" s="7">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G175" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="P175" s="7">
         <f>SUM(F175:O175)</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
